--- a/Automation/static/XLS/card_data_sanity.xlsx
+++ b/Automation/static/XLS/card_data_sanity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ganesh\Meijer\Automation_tool\Miejer_Petro\static\XLS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="292" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="292" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,12 +18,12 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="759">
   <si>
     <t>#</t>
   </si>
@@ -2311,12 +2306,15 @@
   </si>
   <si>
     <t>NVC LIVE APPROVED</t>
+  </si>
+  <si>
+    <t>9F07%7EB200%1E8E%7EFFEECCDDAABB%1E4F%7EA0000000051010%1E9F12%7E5472656E642053686F702043617264%1E50%7E56495341205452454E442053484F5020%1E5F30%7E0202%1E5F20%7E546573742043617264202332%1E5F24%7E240501%1E5F34%7E03%1E9F33%7E4080F8%1E5F25%7E220501%1E5F28%7E0840%1E5F56%7E%1E9F39%7E06%1E9FA03B%7E4D4153544552%1E9FA03A%7E20%1E9FA03D%7E313233343536%1E9FA031%7E01FEDCBA%1E9F27%7E82%1E95%7E0000010000%1E9B%7EFA00%1E9F26%7E123456ABCDEF78%1E9F36%7E0023%1E9FA006%7E50%1E9F10%7E08010B03A6B802%1E9FA00D%7E0987654321FEDC%1E9F4C%7E0023%1E82%7E3C20%1E9A%7E231201%1E9C%7E02%1E5F2A%7E0840%1E84%7EA0000000051010%1E9F1A%7E0840%1E9F37%7EFEDCBA98%1E9F21%7E092345%1E9F34%7E430305%1EDF32%7E47FF000000000000%1E9F41%7E00000007%1E9F0D%7EB850AC8802%1E9F0E%7E0000000002%1E9F0F%7EB870BC9802%1E9F02%7E000000003000%1E9F06%7EA0000000051010%1E9F09%7E0098%1E9F11%7E03%1E9F08%7E0098%1E9F42%7E%1E9F15%7E5397%1E9F40%7EE200F0A003%1E9F1C%7E3738393031323334%1E9F35%7E24%1EDF79%7E342e322e30%1E9F1E%7E3738393031323334%1E5F2D%7E656E%1E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="mmm\-d;@"/>
     <numFmt numFmtId="165" formatCode="\£#,##0;[Red]\£#,##0"/>
@@ -3094,7 +3092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3129,7 +3127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3306,14 +3304,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4090,7 +4088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7337,7 +7335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8335,10 +8333,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -9949,11 +9947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -10020,7 +10018,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="165.75">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="22" t="s">
         <v>292</v>
       </c>
@@ -10032,13 +10030,13 @@
         <v>14</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>278</v>
+        <v>758</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="21"/>
     </row>
-    <row r="3" spans="1:15" ht="153">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="10" t="s">
         <v>152</v>
       </c>
@@ -10073,7 +10071,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="150">
+    <row r="4" spans="1:15" ht="13.5">
       <c r="A4" s="10" t="s">
         <v>153</v>
       </c>
@@ -10090,7 +10088,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="89.25">
+    <row r="5" spans="1:15" ht="13.5">
       <c r="A5" s="10" t="s">
         <v>154</v>
       </c>
@@ -10107,7 +10105,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="127.5">
+    <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
         <v>288</v>
       </c>
@@ -10124,7 +10122,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="127.5">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="26" t="s">
         <v>156</v>
       </c>
@@ -10142,7 +10140,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="140.25">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="26" t="s">
         <v>157</v>
       </c>
@@ -10160,7 +10158,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="127.5">
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>158</v>
       </c>
@@ -10177,7 +10175,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="140.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="10" t="s">
         <v>160</v>
       </c>
@@ -10194,7 +10192,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="127.5">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="26" t="s">
         <v>162</v>
       </c>
@@ -10212,7 +10210,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="127.5">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="26" t="s">
         <v>255</v>
       </c>
@@ -10230,7 +10228,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="127.5">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="26" t="s">
         <v>257</v>
       </c>
@@ -10246,7 +10244,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="127.5">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="28" t="s">
         <v>289</v>
       </c>
@@ -10262,7 +10260,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="140.25">
+    <row r="15" spans="1:15" ht="15">
       <c r="A15" s="28" t="s">
         <v>260</v>
       </c>
@@ -10278,7 +10276,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="140.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>163</v>
       </c>
@@ -10295,7 +10293,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="140.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
         <v>165</v>
       </c>
@@ -10312,7 +10310,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="140.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
         <v>166</v>
       </c>
@@ -10329,7 +10327,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="153">
+    <row r="19" spans="1:10" ht="13.5">
       <c r="A19" s="10" t="s">
         <v>563</v>
       </c>
@@ -10358,7 +10356,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="153">
+    <row r="20" spans="1:10" ht="13.5">
       <c r="A20" s="10" t="s">
         <v>564</v>
       </c>
@@ -10384,7 +10382,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="153">
+    <row r="21" spans="1:10" ht="13.5">
       <c r="A21" s="10" t="s">
         <v>565</v>
       </c>
@@ -10410,7 +10408,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="153">
+    <row r="22" spans="1:10" ht="13.5">
       <c r="A22" s="10" t="s">
         <v>566</v>
       </c>
@@ -10439,7 +10437,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="153">
+    <row r="23" spans="1:10" ht="13.5">
       <c r="A23" s="10" t="s">
         <v>567</v>
       </c>
@@ -10468,7 +10466,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="153">
+    <row r="24" spans="1:10" ht="13.5">
       <c r="A24" s="10" t="s">
         <v>568</v>
       </c>
@@ -10497,7 +10495,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="153">
+    <row r="25" spans="1:10" ht="13.5">
       <c r="A25" s="10" t="s">
         <v>680</v>
       </c>
@@ -10526,7 +10524,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="153">
+    <row r="26" spans="1:10" ht="13.5">
       <c r="A26" s="10" t="s">
         <v>684</v>
       </c>
@@ -10555,7 +10553,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="153">
+    <row r="27" spans="1:10" ht="13.5">
       <c r="A27" s="10" t="s">
         <v>688</v>
       </c>
@@ -10581,7 +10579,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="153">
+    <row r="28" spans="1:10" ht="13.5">
       <c r="A28" s="10" t="s">
         <v>693</v>
       </c>
@@ -10607,7 +10605,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="153">
+    <row r="29" spans="1:10" ht="13.5">
       <c r="A29" s="10" t="s">
         <v>695</v>
       </c>
@@ -10636,7 +10634,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="153">
+    <row r="30" spans="1:10" ht="13.5">
       <c r="A30" s="10" t="s">
         <v>703</v>
       </c>
@@ -10659,7 +10657,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="153">
+    <row r="31" spans="1:10" ht="13.5">
       <c r="A31" s="10" t="s">
         <v>712</v>
       </c>
@@ -10682,7 +10680,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="153">
+    <row r="32" spans="1:10" ht="13.5">
       <c r="A32" s="10" t="s">
         <v>708</v>
       </c>
@@ -10705,7 +10703,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="153">
+    <row r="33" spans="1:9" ht="13.5">
       <c r="A33" s="10" t="s">
         <v>711</v>
       </c>
@@ -10725,7 +10723,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="153">
+    <row r="34" spans="1:9" ht="13.5">
       <c r="A34" s="10" t="s">
         <v>716</v>
       </c>
@@ -10756,7 +10754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11364,7 +11362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -12494,7 +12492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12738,7 +12736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12813,7 +12811,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="140.25">
+    <row r="2" spans="1:16" s="10" customFormat="1">
       <c r="A2" s="19" t="s">
         <v>750</v>
       </c>
@@ -12841,7 +12839,7 @@
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
     </row>
-    <row r="3" spans="1:16" s="10" customFormat="1" ht="140.25">
+    <row r="3" spans="1:16" s="10" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>745</v>
       </c>
@@ -12869,7 +12867,7 @@
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" s="10" customFormat="1" ht="140.25">
+    <row r="4" spans="1:16" s="10" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>753</v>
       </c>
@@ -12897,7 +12895,7 @@
       <c r="O4" s="35"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" s="10" customFormat="1" ht="140.25">
+    <row r="5" spans="1:16" s="10" customFormat="1">
       <c r="A5" s="19" t="s">
         <v>754</v>
       </c>
@@ -12925,7 +12923,7 @@
       <c r="O5" s="35"/>
       <c r="P5" s="35"/>
     </row>
-    <row r="6" spans="1:16" ht="165.75">
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="22" t="s">
         <v>292</v>
       </c>
@@ -12946,7 +12944,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:16" ht="153">
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="10" t="s">
         <v>152</v>
       </c>
@@ -12984,7 +12982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="150">
+    <row r="8" spans="1:16" ht="13.5">
       <c r="A8" s="10" t="s">
         <v>153</v>
       </c>
@@ -13004,7 +13002,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="89.25">
+    <row r="9" spans="1:16" ht="13.5">
       <c r="A9" s="10" t="s">
         <v>154</v>
       </c>
@@ -13024,7 +13022,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="127.5">
+    <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
         <v>288</v>
       </c>
@@ -13044,7 +13042,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="127.5">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="26" t="s">
         <v>156</v>
       </c>
@@ -13065,7 +13063,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="140.25">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="26" t="s">
         <v>157</v>
       </c>
@@ -13086,7 +13084,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="127.5">
+    <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
         <v>158</v>
       </c>
@@ -13106,7 +13104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="140.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="10" t="s">
         <v>160</v>
       </c>
@@ -13126,7 +13124,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="127.5">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="26" t="s">
         <v>162</v>
       </c>
@@ -13147,7 +13145,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="127.5">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="26" t="s">
         <v>255</v>
       </c>
@@ -13168,7 +13166,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="127.5">
+    <row r="17" spans="1:11" ht="15">
       <c r="A17" s="26" t="s">
         <v>257</v>
       </c>
@@ -13187,7 +13185,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="127.5">
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" s="28" t="s">
         <v>289</v>
       </c>
@@ -13206,7 +13204,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="140.25">
+    <row r="19" spans="1:11" ht="15">
       <c r="A19" s="28" t="s">
         <v>260</v>
       </c>
@@ -13225,7 +13223,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="140.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
         <v>163</v>
       </c>
@@ -13245,7 +13243,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="140.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="10" t="s">
         <v>165</v>
       </c>
@@ -13265,7 +13263,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="140.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="10" t="s">
         <v>166</v>
       </c>
@@ -13285,7 +13283,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="153">
+    <row r="23" spans="1:11" ht="13.5">
       <c r="A23" s="10" t="s">
         <v>563</v>
       </c>
@@ -13317,7 +13315,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="153">
+    <row r="24" spans="1:11" ht="13.5">
       <c r="A24" s="10" t="s">
         <v>564</v>
       </c>
@@ -13346,7 +13344,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="153">
+    <row r="25" spans="1:11" ht="13.5">
       <c r="A25" s="10" t="s">
         <v>565</v>
       </c>
@@ -13375,7 +13373,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="153">
+    <row r="26" spans="1:11" ht="13.5">
       <c r="A26" s="10" t="s">
         <v>566</v>
       </c>
@@ -13407,7 +13405,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="153">
+    <row r="27" spans="1:11" ht="13.5">
       <c r="A27" s="10" t="s">
         <v>567</v>
       </c>
@@ -13439,7 +13437,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="153">
+    <row r="28" spans="1:11" ht="13.5">
       <c r="A28" s="10" t="s">
         <v>568</v>
       </c>
@@ -13471,7 +13469,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="153">
+    <row r="29" spans="1:11" ht="13.5">
       <c r="A29" s="10" t="s">
         <v>680</v>
       </c>
@@ -13503,7 +13501,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="153">
+    <row r="30" spans="1:11" ht="13.5">
       <c r="A30" s="10" t="s">
         <v>684</v>
       </c>
@@ -13535,7 +13533,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="153">
+    <row r="31" spans="1:11" ht="13.5">
       <c r="A31" s="10" t="s">
         <v>688</v>
       </c>
@@ -13564,7 +13562,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="153">
+    <row r="32" spans="1:11" ht="13.5">
       <c r="A32" s="10" t="s">
         <v>693</v>
       </c>
@@ -13593,7 +13591,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="153">
+    <row r="33" spans="1:11" ht="13.5">
       <c r="A33" s="10" t="s">
         <v>695</v>
       </c>
@@ -13625,7 +13623,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="153">
+    <row r="34" spans="1:11" ht="13.5">
       <c r="A34" s="10" t="s">
         <v>703</v>
       </c>
@@ -13651,7 +13649,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="153">
+    <row r="35" spans="1:11" ht="13.5">
       <c r="A35" s="10" t="s">
         <v>712</v>
       </c>
@@ -13677,7 +13675,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="153">
+    <row r="36" spans="1:11" ht="13.5">
       <c r="A36" s="10" t="s">
         <v>708</v>
       </c>
@@ -13703,7 +13701,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="153">
+    <row r="37" spans="1:11" ht="13.5">
       <c r="A37" s="10" t="s">
         <v>711</v>
       </c>
@@ -13726,7 +13724,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="153">
+    <row r="38" spans="1:11" ht="13.5">
       <c r="A38" s="10" t="s">
         <v>716</v>
       </c>
@@ -13755,7 +13753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -16021,7 +16019,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="93" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="93" spans="1:16" s="12" customFormat="1" ht="195">
       <c r="A93" s="22" t="s">
         <v>138</v>
       </c>
@@ -16059,7 +16057,7 @@
       <c r="O93" s="35"/>
       <c r="P93" s="35"/>
     </row>
-    <row r="94" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="94" spans="1:16" s="12" customFormat="1">
       <c r="A94" s="10" t="s">
         <v>143</v>
       </c>
@@ -16087,7 +16085,7 @@
       <c r="O94" s="35"/>
       <c r="P94" s="35"/>
     </row>
-    <row r="95" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="95" spans="1:16" s="12" customFormat="1">
       <c r="A95" s="10" t="s">
         <v>281</v>
       </c>
@@ -16115,7 +16113,7 @@
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
     </row>
-    <row r="96" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="96" spans="1:16" s="12" customFormat="1">
       <c r="A96" s="10" t="s">
         <v>283</v>
       </c>
@@ -16149,7 +16147,7 @@
       <c r="O96" s="35"/>
       <c r="P96" s="35"/>
     </row>
-    <row r="97" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="97" spans="1:16" s="12" customFormat="1">
       <c r="A97" s="10" t="s">
         <v>285</v>
       </c>
@@ -16177,7 +16175,7 @@
       <c r="O97" s="35"/>
       <c r="P97" s="35"/>
     </row>
-    <row r="98" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="98" spans="1:16" s="12" customFormat="1">
       <c r="A98" s="10" t="s">
         <v>140</v>
       </c>
@@ -16205,7 +16203,7 @@
       <c r="O98" s="35"/>
       <c r="P98" s="35"/>
     </row>
-    <row r="99" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="99" spans="1:16" s="12" customFormat="1">
       <c r="A99" s="10" t="s">
         <v>141</v>
       </c>
@@ -16247,7 +16245,7 @@
       <c r="O99" s="35"/>
       <c r="P99" s="35"/>
     </row>
-    <row r="100" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="100" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A100" s="10" t="s">
         <v>144</v>
       </c>
@@ -16289,7 +16287,7 @@
       <c r="O100" s="35"/>
       <c r="P100" s="35"/>
     </row>
-    <row r="101" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="101" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A101" s="10" t="s">
         <v>146</v>
       </c>
@@ -16331,7 +16329,7 @@
       <c r="O101" s="35"/>
       <c r="P101" s="35"/>
     </row>
-    <row r="102" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="102" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A102" s="10" t="s">
         <v>149</v>
       </c>
@@ -16363,7 +16361,7 @@
       <c r="O102" s="35"/>
       <c r="P102" s="35"/>
     </row>
-    <row r="103" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="103" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A103" s="10" t="s">
         <v>265</v>
       </c>
@@ -16393,7 +16391,7 @@
       <c r="O103" s="35"/>
       <c r="P103" s="35"/>
     </row>
-    <row r="104" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="104" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A104" s="10" t="s">
         <v>267</v>
       </c>

--- a/Automation/static/XLS/card_data_sanity.xlsx
+++ b/Automation/static/XLS/card_data_sanity.xlsx
@@ -3304,7 +3304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9950,8 +9950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
